--- a/03_Materials/finalize_stimuli/da/da_translated_final.xlsx
+++ b/03_Materials/finalize_stimuli/da/da_translated_final.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/da/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600BDC89-23F7-3248-AF6B-A68EA7DDFBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3AE787-1C98-FF4C-858D-1525B595B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="da_translate" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yngwie Nielsen - Personal View" guid="{6B4EC483-B301-4C17-A1C1-8859EE713EF0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Anna stückler Jeppesen - Privat visning" guid="{C8DEEAE8-8640-4C39-9B2D-4BEA82A9B1CF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3332" windowHeight="2132" activeSheetId="1"/>
-    <customWorkbookView name="Yngwie Nielsen - Personal View" guid="{6B4EC483-B301-4C17-A1C1-8859EE713EF0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25059,8 +25059,8 @@
   </sheetPr>
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F171" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -66344,13 +66344,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C8DEEAE8-8640-4C39-9B2D-4BEA82A9B1CF}" scale="110">
-      <selection activeCell="G8" sqref="G8"/>
+    <customSheetView guid="{6B4EC483-B301-4C17-A1C1-8859EE713EF0}" scale="55" topLeftCell="A369">
+      <selection activeCell="D395" sqref="D395"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6B4EC483-B301-4C17-A1C1-8859EE713EF0}" scale="55" topLeftCell="A369">
-      <selection activeCell="D395" sqref="D395"/>
+    <customSheetView guid="{C8DEEAE8-8640-4C39-9B2D-4BEA82A9B1CF}" scale="110">
+      <selection activeCell="G8" sqref="G8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
